--- a/Purchasing_List.xlsx
+++ b/Purchasing_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366366E-830F-9240-8CAA-38FF42FAC1EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408DEB6C-B9FE-8B46-838A-61EEC1DAF7BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="27980" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>Digikey Part Number: RMCF0805FT10K0</t>
   </si>
   <si>
-    <t>Digikey Part Number: RM10F1003CT</t>
-  </si>
-  <si>
     <t>Digikey Part Number: CML0805C0G100JT50V</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>https://www.amazon.com/Riipoo-3-5mm-AUX-Audio-Cable/dp/B07429HJRJ/ref=sr_1_4?crid=3RDBDNZT7PI7F&amp;keywords=3.5mm+audio+cable+male+to+male+15cm&amp;qid=1645574706&amp;s=industrial&amp;sprefix=3.5mm+audio+cable+male+to+male+15cm%2Cindustrial%2C66&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>Digikey Part Number: RMCF0805JT100KTR-ND</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1505,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
@@ -1550,7 +1550,7 @@
         <v>130</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
         <v>131</v>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -1661,7 +1661,7 @@
         <v>161</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
         <v>162</v>
@@ -1727,7 +1727,7 @@
         <v>132</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
         <v>133</v>
@@ -1772,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
@@ -1907,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
         <v>143</v>
@@ -1931,7 +1931,7 @@
         <v>110</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" t="s">
         <v>111</v>
@@ -2020,7 +2020,7 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -2044,7 +2044,7 @@
         <v>145</v>
       </c>
       <c r="H41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -2064,10 +2064,10 @@
         <v>93</v>
       </c>
       <c r="G42" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -2085,7 +2085,7 @@
         <v>0.1108</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>97</v>
@@ -2190,10 +2190,10 @@
         <v>48</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -2323,7 +2323,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>61</v>
@@ -2497,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="F66" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -2521,7 +2521,7 @@
         <v>108</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H67" t="s">
         <v>156</v>
